--- a/generated_docs/WR_89787325_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89787325_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>Billy Dunnivan</t>
+          <t>BD</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/26/2025 to 07/27/25</t>
+          <t>07/21/2025 to 07/27/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>835-1</t>
+          <t>#NO MATCH-2</t>
         </is>
       </c>
     </row>

--- a/generated_docs/WR_89787325_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89787325_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:47 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>13242.56</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>1429.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>1429.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="H21" s="16" t="n">
-        <v>4051.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -994,7 +994,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="H50" s="16" t="n">
-        <v>4424.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="G56" s="13" t="inlineStr"/>
       <c r="H56" s="14" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>3811.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="H58" s="16" t="n">
-        <v>4766.15</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/generated_docs/WR_89787325_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89787325_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:47 PM</t>
+          <t>Report Generated On: 08/26/2025 09:59 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>13242.56</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P7</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>1429.2</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>1429.2</v>
       </c>
     </row>
     <row r="21">
@@ -911,7 +907,7 @@
         </is>
       </c>
       <c r="H21" s="16" t="n">
-        <v>0</v>
+        <v>4051.55</v>
       </c>
     </row>
     <row r="24">
@@ -994,7 +990,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="27">
@@ -1028,7 +1024,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="28">
@@ -1062,7 +1058,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="29">
@@ -1096,7 +1092,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="30">
@@ -1130,7 +1126,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="31">
@@ -1164,7 +1160,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="32">
@@ -1198,7 +1194,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="33">
@@ -1232,7 +1228,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="34">
@@ -1266,7 +1262,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="35">
@@ -1300,7 +1296,7 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="36">
@@ -1334,7 +1330,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="37">
@@ -1368,7 +1364,7 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="38">
@@ -1402,7 +1398,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="39">
@@ -1436,7 +1432,7 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="40">
@@ -1470,7 +1466,7 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="41">
@@ -1504,7 +1500,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="42">
@@ -1538,7 +1534,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="43">
@@ -1572,7 +1568,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>282.51</v>
       </c>
     </row>
     <row r="44">
@@ -1606,7 +1602,7 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="45">
@@ -1640,7 +1636,7 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="46">
@@ -1674,7 +1670,7 @@
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="47">
@@ -1708,7 +1704,7 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="48">
@@ -1742,7 +1738,7 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="49">
@@ -1776,7 +1772,7 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="50">
@@ -1786,7 +1782,7 @@
         </is>
       </c>
       <c r="H50" s="16" t="n">
-        <v>0</v>
+        <v>4424.86</v>
       </c>
     </row>
     <row r="53">
@@ -1869,7 +1865,7 @@
       </c>
       <c r="G55" s="10" t="inlineStr"/>
       <c r="H55" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="56">
@@ -1903,7 +1899,7 @@
       </c>
       <c r="G56" s="13" t="inlineStr"/>
       <c r="H56" s="14" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="57">
@@ -1937,7 +1933,7 @@
       </c>
       <c r="G57" s="10" t="inlineStr"/>
       <c r="H57" s="11" t="n">
-        <v>0</v>
+        <v>3811.2</v>
       </c>
     </row>
     <row r="58">
@@ -1947,7 +1943,7 @@
         </is>
       </c>
       <c r="H58" s="16" t="n">
-        <v>0</v>
+        <v>4766.15</v>
       </c>
     </row>
   </sheetData>
